--- a/biology/Biologie cellulaire et moléculaire/Siglec/Siglec.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Siglec/Siglec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Siglec (Sialic acid-binding immunoglobulin-type lectin[N 1]) désigne des protéines de surface de type immunoglobuline[N 2] qui se lient à l'acide sialique (une molécule qui joue un rôle important dans les interactions inter-cellulaires), elles sont principalement exprimées sur les cellules immunitaires[1], notamment les cellules hématopoïétiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Siglec (Sialic acid-binding immunoglobulin-type lectin[N 1]) désigne des protéines de surface de type immunoglobuline[N 2] qui se lient à l'acide sialique (une molécule qui joue un rôle important dans les interactions inter-cellulaires), elles sont principalement exprimées sur les cellules immunitaires, notamment les cellules hématopoïétiques.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1990, les biologistes moléculaires ont mis en évidence de nombreuses protéines de type immunoglobuline qui pouvaient se lier aux glycanes, elles ont été nommées « lectines I »[N 3]. Parmi celles-ci, certaines pouvaient constituer un sous-groupe spécifique, il s'agissait de récepteurs fixés sur la membrane cellulaire qui pouvaient se lier à l'acide sialique et qui présentaient des similarités structurelles et fonctionnelles. En 1998, un groupe de 19 chercheurs de différents pays proposa de nommer cette famille par le nom de « Siglec »[2], à l'époque on connaissait 4 Siglecs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1990, les biologistes moléculaires ont mis en évidence de nombreuses protéines de type immunoglobuline qui pouvaient se lier aux glycanes, elles ont été nommées « lectines I »[N 3]. Parmi celles-ci, certaines pouvaient constituer un sous-groupe spécifique, il s'agissait de récepteurs fixés sur la membrane cellulaire qui pouvaient se lier à l'acide sialique et qui présentaient des similarités structurelles et fonctionnelles. En 1998, un groupe de 19 chercheurs de différents pays proposa de nommer cette famille par le nom de « Siglec », à l'époque on connaissait 4 Siglecs.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Siglecs sont des récepteurs transmembranaires comprenant un domaine V-set de type immunoglobuline[N 4] N-terminal extracellulaire, suivi par un nombre variable de domaines C2-set[N 5] de type immunoglobuline (de 1 pour CD33 jusqu'à 16 pour la  sialoadhésine)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Siglecs sont des récepteurs transmembranaires comprenant un domaine V-set de type immunoglobuline[N 4] N-terminal extracellulaire, suivi par un nombre variable de domaines C2-set[N 5] de type immunoglobuline (de 1 pour CD33 jusqu'à 16 pour la  sialoadhésine).
 </t>
         </is>
       </c>
@@ -573,17 +589,19 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 2021, on connaît 15 Siglecs chez les humains et/ou les grands singes et 9 chez les souris. Les Siglecs des humains et des grands singes sont désignés par Siglec-1 à Siglec-15[4].
-Liste des Siglecs humaines[5]-[6]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 2021, on connaît 15 Siglecs chez les humains et/ou les grands singes et 9 chez les souris. Les Siglecs des humains et des grands singes sont désignés par Siglec-1 à Siglec-15.
+Liste des Siglecs humaines-:
 Siglec-1 : sialoadhésine ou CD169, une molécule d'adhésion cellulaire trouvé à la surface de macrophages.
 Siglec-2 : CD22, une molécule de régulation qui empêche la suractivation du système immunitaire et le développement des maladies auto-immunes.
 Siglec-3 ; CD33, un récepteur transmembranaire exprimé sur des cellules de lignée myéloïde.
 Siglec-4 : glycoprotéine associée à la myéline (MAG).
 Siglec-5 : CD170 ou OB-BP1 (Human OB binding protein-2 [N 6]), présent dans les monocytes, les granulocytes et les lymphocytes B.
 Siglec-6 : OB-BP1 ou CDw327, présent dans les lymphocytes B et dans le placenta.
-Siglec-7 : AIRM1 ou CDw328, présent dans les monocytes, les lymphocytes NK et les granulocytes. Cette protéine a été identifiée en 1999 et son gène est située sur le chromosome 9, elle possède 3 domaines de type immunoglobuline[7]
+Siglec-7 : AIRM1 ou CDw328, présent dans les monocytes, les lymphocytes NK et les granulocytes. Cette protéine a été identifiée en 1999 et son gène est située sur le chromosome 9, elle possède 3 domaines de type immunoglobuline
 Siglec-8 : exprimé principalement dans les granulocytes éosinophiles, les mastocytes et dans une moindre mesure les granulocytes basophiles.
 Siglec-9 : un inhibiteur récepteur qui atténue le fonctionnement des lymphocytes T et les lymphocytes NK.
 Siglec-10 : exprimé en surface des macrophages, sa fixation sur CD24 en surface d'une cellule fait office de signal inhibant la phagocytose de cette cellule.
